--- a/TIvsAT.xlsx
+++ b/TIvsAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katelord/Desktop/Astro Research/AstroResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCF65B0-CD43-2C4B-B1F1-8653247C5F96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0AAC34-C30E-A44F-81A0-441ED070EA15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15900" xr2:uid="{71C5EFEE-D702-BA4B-AC84-F98E7C9853A4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="15900" xr2:uid="{71C5EFEE-D702-BA4B-AC84-F98E7C9853A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
